--- a/Valeur.xlsx
+++ b/Valeur.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7053195b86a4c835/Bureau/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7053195b86a4c835/Bureau/Dossier Glen/Projet Microcontroleur/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA07C893-BCF4-4E1F-9845-E838AB9C6965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{FA07C893-BCF4-4E1F-9845-E838AB9C6965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED36B26B-429C-4740-9CB8-6B62F4D66105}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3D927C5A-0A76-4119-9F70-D81713419678}"/>
   </bookViews>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,72 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Vds</t>
   </si>
   <si>
     <t>Ids</t>
-  </si>
-  <si>
-    <t>1.67</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.25</t>
-  </si>
-  <si>
-    <t>2.27</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>0.4</t>
-  </si>
-  <si>
-    <t>0.795</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>1.13</t>
-  </si>
-  <si>
-    <t>0.8</t>
-  </si>
-  <si>
-    <t>1.42</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>1.91</t>
   </si>
 </sst>
 </file>
@@ -137,9 +75,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -157,6 +98,963 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.91</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.09</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B107-42D0-9CED-21283FCA0A8A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="604820255"/>
+        <c:axId val="468949263"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="604820255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="468949263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="468949263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="604820255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Graphique 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6C54CA5-58D3-2A82-679E-F4845C28CBA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,146 +1354,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8CD567F-E97B-44BE-8CEE-0A2A42D3E579}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="B1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1"/>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1"/>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1"/>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1"/>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="2">
+        <v>1.67</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.91</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.09</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C10" s="2">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="1"/>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C12" s="2">
+        <v>2.27</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
         <v>4</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C14" s="2">
+        <v>2.29</v>
+      </c>
+      <c r="D14" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>4</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>